--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1348654.362407618</v>
+        <v>1452833.99685869</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>52.83391759428179</v>
+        <v>109.0497360705505</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>121.4166471685773</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>60.03388914270771</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -953,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>374.0240862688964</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>58.84835649975477</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>69.82724760425873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.3434512871711468</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>225.8870793824209</v>
+        <v>69.07155172517457</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>66.12869588327391</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899578</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214478</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>248.1322108373816</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>66.43694060668919</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>134.1343006978452</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>176.1811323375807</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>79.70119244397701</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,13 +2845,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>134.4555615353757</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462278</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.8518831495033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358418</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>67.99491930587892</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>132.1190787273706</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>72.8097849205479</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263131</v>
+        <v>2051.278283189672</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>1928.562613961071</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>1759.626431033164</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>1759.626431033164</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>2921.446402245466</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>2666.761914039579</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672847</v>
+        <v>2377.344744002618</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>2149.355193104601</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1928.562613961071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4601,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4662,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622424</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343355</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1477.828650634029</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1477.828650634029</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X7" t="n">
-        <v>1249.839099736012</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3008.990485028397</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2677.927597684826</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>2325.158942414711</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520487</v>
+        <v>2325.158942414711</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1935.019610438899</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7277411117484</v>
+        <v>629.780563451991</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D10" t="n">
         <v>310.7277411117484</v>
@@ -4948,16 +4950,16 @@
         <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>941.1583359835356</v>
+        <v>1032.221607425761</v>
       </c>
       <c r="X10" t="n">
-        <v>713.1687850855183</v>
+        <v>1032.221607425761</v>
       </c>
       <c r="Y10" t="n">
-        <v>492.3762059419881</v>
+        <v>811.4290282822308</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349515</v>
+        <v>840.8417932021791</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2020.349486996074</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.972636491142</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>996.527639843977</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5212,37 +5214,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817747</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1398.968683817747</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1178.176104674217</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5425,52 +5427,52 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5492,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855609</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1871.240688199807</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,37 +5767,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,19 +5837,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558404</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630497</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218161</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866303</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866303</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430191</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532174</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388644</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5993,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C25" t="n">
-        <v>593.6115863900017</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>443.4949469776659</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>295.5818533952728</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>148.6919058973624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644063</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231727</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649334</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151423</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866303</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421534</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4293.270947686604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4038.586459480717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3749.169289443756</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.179738545739</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.387159402209</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,25 +6478,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>2876.560776129204</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>3473.939263755756</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>4101.537227310362</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>4653.44695754965</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>2876.594459243709</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>2728.681365661316</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>2728.681365661316</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376196</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
         <v>4690.833152398593</v>
@@ -6646,25 +6648,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X31" t="n">
-        <v>3677.571434467152</v>
+        <v>3414.84920173806</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>3194.05662259453</v>
       </c>
     </row>
     <row r="32">
@@ -6774,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6880,22 +6882,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X34" t="n">
         <v>1501.108204237296</v>
@@ -6917,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>2978.516248701935</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>2809.580065774028</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>2809.580065774028</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>2661.666972191635</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7368,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032295</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.58852738579</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913445</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913445</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L45" t="n">
-        <v>2381.235169913445</v>
+        <v>2848.020469709692</v>
       </c>
       <c r="M45" t="n">
-        <v>2978.613657539997</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>101.1181252153539</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992863</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>40.64330621514321</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>4.005432486446381</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>220.0860577299018</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>45.69767948409211</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>110.0033420516634</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>206.821805892614</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>14.15991148283666</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.73277020259147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25129,7 +25131,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>130.4994612393471</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>184.1427240179491</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>47.71290145456666</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>73.62417772602127</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165159</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165159</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651769</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062535</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26439,7 +26441,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26448,16 +26450,16 @@
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1016321.423007003</v>
+        <v>-1016321.423007002</v>
       </c>
       <c r="C6" t="n">
         <v>312423.3227205896</v>
       </c>
       <c r="D6" t="n">
-        <v>312423.3227205896</v>
+        <v>312423.3227205897</v>
       </c>
       <c r="E6" t="n">
-        <v>64324.82506314841</v>
+        <v>64324.82506314811</v>
       </c>
       <c r="F6" t="n">
-        <v>389737.2868705043</v>
+        <v>389737.286870504</v>
       </c>
       <c r="G6" t="n">
         <v>389737.2868705039</v>
       </c>
       <c r="H6" t="n">
-        <v>389737.2868705037</v>
+        <v>389737.2868705044</v>
       </c>
       <c r="I6" t="n">
+        <v>389737.286870504</v>
+      </c>
+      <c r="J6" t="n">
+        <v>172206.0844732265</v>
+      </c>
+      <c r="K6" t="n">
+        <v>389737.2868705038</v>
+      </c>
+      <c r="L6" t="n">
+        <v>389737.286870504</v>
+      </c>
+      <c r="M6" t="n">
+        <v>304682.2589349918</v>
+      </c>
+      <c r="N6" t="n">
+        <v>389737.286870504</v>
+      </c>
+      <c r="O6" t="n">
+        <v>389737.286870504</v>
+      </c>
+      <c r="P6" t="n">
         <v>389737.2868705039</v>
-      </c>
-      <c r="J6" t="n">
-        <v>172206.0844732264</v>
-      </c>
-      <c r="K6" t="n">
-        <v>389737.286870504</v>
-      </c>
-      <c r="L6" t="n">
-        <v>389737.2868705039</v>
-      </c>
-      <c r="M6" t="n">
-        <v>304682.258934992</v>
-      </c>
-      <c r="N6" t="n">
-        <v>389737.2868705038</v>
-      </c>
-      <c r="O6" t="n">
-        <v>389737.2868705039</v>
-      </c>
-      <c r="P6" t="n">
-        <v>389737.2868705038</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>333.4040210617718</v>
+        <v>277.1882025855031</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>164.7951910370356</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>305.2390026282998</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.21385238715715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>89.76711651845758</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>182.3103957195693</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>250.6517206717308</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>60.63591895417008</v>
+        <v>217.4514466114164</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28524,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28764,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29569,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29685,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-2.419498242208011e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31789,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>491.597732526531</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270649</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31923,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547051</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>693.4464364470634</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,13 +32803,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>134.728488117189</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>435.9638754389779</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>361.1081696176612</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356907</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>639.8517673857158</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>349.0014880820866</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410434</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>140.6875824748309</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066292</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>562.1047243637302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999026</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028587982</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>293.3676309945334</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,13 +37621,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>508.5100553023825</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1452833.99685869</v>
+        <v>1448821.386844696</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.3978584295382</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>109.0497360705505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>68.74868616823352</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>121.4166471685773</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>60.03388914270771</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>58.84835649975477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>44.37321050886605</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3434512871711468</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W10" t="n">
-        <v>69.07155172517457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>66.12869588327391</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>245.8796921214478</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004308</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.7518808581205</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>248.1322108373816</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>94.64226186542921</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>66.43694060668919</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>134.1343006978452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>79.70119244397701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>134.4555615353757</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462278</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>14.92158678358418</v>
+        <v>104.7777418077837</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>67.99491930587892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>23.6255456814127</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.1190787273706</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450752</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189672</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>2719.306689612893</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1928.562613961071</v>
+        <v>304.8914167017404</v>
       </c>
       <c r="C4" t="n">
-        <v>1759.626431033164</v>
+        <v>135.9552337738334</v>
       </c>
       <c r="D4" t="n">
-        <v>1759.626431033164</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>1611.713337450771</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>3044.089480193524</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>2921.446402245466</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V4" t="n">
-        <v>2666.761914039579</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W4" t="n">
-        <v>2377.344744002618</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X4" t="n">
-        <v>2149.355193104601</v>
+        <v>707.3324606755102</v>
       </c>
       <c r="Y4" t="n">
-        <v>1928.562613961071</v>
+        <v>486.5398815319801</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.53911114974</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.8965081646988</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>538.8965081646988</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>941.3375521384687</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>720.5449729949386</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1548.419770374778</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>950.1045973369969</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>564.3163447387526</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>153.330439949145</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3008.990485028397</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2677.927597684826</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.158942414711</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.158942414711</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.019610438899</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.780563451991</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W10" t="n">
-        <v>1032.221607425761</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X10" t="n">
-        <v>1032.221607425761</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y10" t="n">
-        <v>811.4290282822308</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756267</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021791</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756786</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996074</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.972636491142</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>996.527639843977</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817747</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1398.968683817747</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.176104674217</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852257</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969299</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797191</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832668</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487572</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510513</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510513</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510513</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797191</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832668</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855609</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199807</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>189.4149073564862</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1366.593344833982</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X22" t="n">
-        <v>1138.603793935964</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129204</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755756</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4101.537227310362</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3012.408157764291</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3012.408157764291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243709</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376196</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3932.255922673038</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3414.84920173806</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3194.05662259453</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,37 +6694,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,16 +6952,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2978.516248701935</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C37" t="n">
-        <v>2809.580065774028</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D37" t="n">
-        <v>2809.580065774028</v>
+        <v>738.5604932615184</v>
       </c>
       <c r="E37" t="n">
-        <v>2661.666972191635</v>
+        <v>590.6473996791253</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y37" t="n">
-        <v>3160.164713532175</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2848.020469709692</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3445.398957336244</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>101.1181252153539</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40.64330621514321</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>110.003342051664</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.005432486446381</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>70.88187642683964</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>220.0860577299018</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45.69767948409211</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>206.821805892614</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14.15991148283666</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>130.4994612393471</v>
+        <v>40.64330621514758</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.1427240179491</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.71290145456666</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920848.7479165159</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920848.7479165159</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
@@ -26435,16 +26435,16 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
@@ -26456,7 +26456,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1016321.423007002</v>
+        <v>-1016321.423007003</v>
       </c>
       <c r="C6" t="n">
-        <v>312423.3227205896</v>
+        <v>312423.3227205895</v>
       </c>
       <c r="D6" t="n">
-        <v>312423.3227205897</v>
+        <v>312423.3227205898</v>
       </c>
       <c r="E6" t="n">
-        <v>64324.82506314811</v>
+        <v>63977.44580879138</v>
       </c>
       <c r="F6" t="n">
-        <v>389737.286870504</v>
+        <v>389389.907616147</v>
       </c>
       <c r="G6" t="n">
-        <v>389737.2868705039</v>
+        <v>389389.9076161469</v>
       </c>
       <c r="H6" t="n">
-        <v>389737.2868705044</v>
+        <v>389389.9076161468</v>
       </c>
       <c r="I6" t="n">
-        <v>389737.286870504</v>
+        <v>389389.9076161468</v>
       </c>
       <c r="J6" t="n">
-        <v>172206.0844732265</v>
+        <v>171858.7052188693</v>
       </c>
       <c r="K6" t="n">
-        <v>389737.2868705038</v>
+        <v>389389.9076161468</v>
       </c>
       <c r="L6" t="n">
-        <v>389737.286870504</v>
+        <v>389389.9076161469</v>
       </c>
       <c r="M6" t="n">
-        <v>304682.2589349918</v>
+        <v>304334.8796806351</v>
       </c>
       <c r="N6" t="n">
-        <v>389737.286870504</v>
+        <v>389389.9076161468</v>
       </c>
       <c r="O6" t="n">
-        <v>389737.286870504</v>
+        <v>389389.907616147</v>
       </c>
       <c r="P6" t="n">
-        <v>389737.2868705039</v>
+        <v>389389.907616147</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.33598323394239</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>277.1882025855031</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>79.86678684997884</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>164.7951910370356</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>305.2390026282998</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>89.76711651845758</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>366.5485151445874</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.6517206717308</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W10" t="n">
-        <v>217.4514466114164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.419498242208011e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270649</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547051</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>693.4464364470634</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>134.728488117189</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>435.9638754389779</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>361.1081696176612</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34386,13 +34386,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>270.9716933356907</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410434</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748309</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,13 +35816,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066292</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>562.1047243637302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36062,7 +36062,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572999026</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7540807028587982</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>293.3676309945334</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>222.5537898377871</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1448821.386844696</v>
+        <v>1450581.917147481</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.3978584295382</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>214.660949138129</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>68.74868616823352</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>21.71281753064707</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952946</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.67037196991711</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>159.8627073622765</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>44.37321050886605</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>208.3347909564264</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>95.81514163764196</v>
       </c>
       <c r="V10" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428213</v>
+        <v>0.8253826161918028</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>27.24739666248536</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.5813113004308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.7518808581205</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.64226186542921</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.6041077643461</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670954</v>
+        <v>113.8415422301048</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>41.33703994143007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>104.7777418077837</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>41.33703994142957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646511</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X2" t="n">
-        <v>2719.306689612893</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y2" t="n">
-        <v>2719.306689612893</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304.8914167017404</v>
+        <v>967.3286325795108</v>
       </c>
       <c r="C4" t="n">
-        <v>135.9552337738334</v>
+        <v>798.3924496516039</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>648.2758102392681</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>500.362716656875</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>353.4727691589646</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>185.7699325336836</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610488</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610488</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>935.3220115735276</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X4" t="n">
-        <v>707.3324606755102</v>
+        <v>1188.121211723041</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.5398815319801</v>
+        <v>967.3286325795108</v>
       </c>
     </row>
     <row r="5">
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,16 +4600,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1853.982617026597</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1485.020100086185</v>
       </c>
       <c r="D8" t="n">
-        <v>950.1045973369969</v>
+        <v>1126.754401479435</v>
       </c>
       <c r="E8" t="n">
-        <v>564.3163447387526</v>
+        <v>740.9661488811907</v>
       </c>
       <c r="F8" t="n">
-        <v>153.330439949145</v>
+        <v>329.9802440915832</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>318.9481979769837</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1830.511576737339</v>
       </c>
       <c r="V10" t="n">
-        <v>1914.135768168901</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,28 +5038,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
         <v>705.9324428257312</v>
@@ -5424,16 +5424,16 @@
         <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770323</v>
+        <v>1089.917939501689</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491255</v>
+        <v>920.9817565737817</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367897</v>
+        <v>770.8651171614459</v>
       </c>
       <c r="E22" t="n">
-        <v>336.3048548543966</v>
+        <v>622.9520235790528</v>
       </c>
       <c r="F22" t="n">
-        <v>189.4149073564862</v>
+        <v>476.0620760811424</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>308.8659767960224</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>167.1541456382205</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1492.358983475458</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072721</v>
+        <v>1271.566404331928</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,40 +6451,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="32">
@@ -6682,49 +6682,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703114</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424045</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.613315601761</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>888.6771326738542</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>738.5604932615184</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>590.6473996791253</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V37" t="n">
-        <v>1977.461080510509</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.043910473548</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.054359575531</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.261780432001</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>526.5658826424041</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>526.5658826424041</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864911</v>
+        <v>144.5956654067394</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.9994244361425</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.003342051664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.88187642683964</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>8.661728554219437</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="26">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.2291039219418</v>
+        <v>111.8681131589323</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>45.44677382459292</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>40.64330621514758</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>181.406732581461</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>45.44677382459304</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062535</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319401</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92793.84288319401</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319407</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92793.84288319405</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
@@ -26432,31 +26432,31 @@
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26524,46 +26524,46 @@
         <v>-1016321.423007003</v>
       </c>
       <c r="C6" t="n">
-        <v>312423.3227205895</v>
+        <v>312423.3227205896</v>
       </c>
       <c r="D6" t="n">
-        <v>312423.3227205898</v>
+        <v>312423.3227205897</v>
       </c>
       <c r="E6" t="n">
-        <v>63977.44580879138</v>
+        <v>64290.08713771243</v>
       </c>
       <c r="F6" t="n">
-        <v>389389.907616147</v>
+        <v>389702.5489450683</v>
       </c>
       <c r="G6" t="n">
-        <v>389389.9076161469</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="H6" t="n">
-        <v>389389.9076161468</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="I6" t="n">
-        <v>389389.9076161468</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="J6" t="n">
-        <v>171858.7052188693</v>
+        <v>172171.3465477907</v>
       </c>
       <c r="K6" t="n">
-        <v>389389.9076161468</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="L6" t="n">
-        <v>389389.9076161469</v>
+        <v>389702.548945068</v>
       </c>
       <c r="M6" t="n">
-        <v>304334.8796806351</v>
+        <v>304647.5210095563</v>
       </c>
       <c r="N6" t="n">
-        <v>389389.9076161468</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="O6" t="n">
-        <v>389389.907616147</v>
+        <v>389702.5489450682</v>
       </c>
       <c r="P6" t="n">
-        <v>389389.907616147</v>
+        <v>389702.548945068</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.33598323394239</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>171.5769895179245</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.86678684997884</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>123.0421973836737</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.520714960759</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>126.6602909743145</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>366.5485151445874</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>86.2729734308941</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>190.3966965679709</v>
       </c>
       <c r="V10" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>189.0011860882986</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>57.65947400496527</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35734,13 +35734,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
